--- a/刘杰/liu_工作簿1.xlsx
+++ b/刘杰/liu_工作簿1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\教务管理系统\Education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\教务管理系统\Education\刘杰\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>课程表</t>
   </si>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>课程名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授课安排表id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,23 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>授课安排表i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>平时成绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,11 +232,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级课表(班级-授课安排)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开班时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课时间和地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生-班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课安排id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级课表(班级-授课时间和地点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课时间和地点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生-班级id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,46 +615,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1"/>
     </row>
@@ -652,31 +674,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -686,10 +708,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -713,70 +735,92 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
         <v>16</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -784,65 +828,76 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/刘杰/liu_工作簿1.xlsx
+++ b/刘杰/liu_工作簿1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>课程表</t>
   </si>
@@ -168,7 +168,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>教师类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课安排(课程-教师)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入学时间(根据入学年份得到第几个学年，但没有考虑留级的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭住址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通识课必修/选修 专业课必修/限选/任选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课时间和地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生-班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,111 +260,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>教师类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授课安排(课程-教师)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入学时间(根据入学年份得到第几个学年，但没有考虑留级的)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭住址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成绩表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平时成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期末成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通识课必修/选修 专业课必修/限选/任选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开班时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授课时间和地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生-班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号</t>
+    <t>授课安排id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课时间和地点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>班级编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授课安排id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级课表(班级-授课时间和地点)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授课时间和地点id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生-班级id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,12 +628,12 @@
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -645,31 +641,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -677,47 +673,50 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -725,7 +724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -733,166 +732,162 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/刘杰/liu_工作簿1.xlsx
+++ b/刘杰/liu_工作簿1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>课程表</t>
   </si>
@@ -30,27 +30,9 @@
     <t>老师名</t>
   </si>
   <si>
-    <t>t001</t>
-  </si>
-  <si>
-    <t>张桂芳</t>
-  </si>
-  <si>
-    <t>t002</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>c001</t>
-  </si>
-  <si>
     <t>班级表</t>
   </si>
   <si>
-    <t>软工1401</t>
-  </si>
-  <si>
     <t>课程编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +90,6 @@
   </si>
   <si>
     <t>学分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开课学期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,18 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授课时间和地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教学楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生-班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,23 +226,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授课安排id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授课时间和地点id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>班级编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>开课专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>班级编号</t>
+    <t>开课学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课班级(教师&amp;班级)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授课时间(年)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选修时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,17 +589,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
@@ -630,30 +608,30 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1"/>
     </row>
@@ -667,227 +645,203 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C19" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C26" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>56</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/刘杰/liu_工作簿1.xlsx
+++ b/刘杰/liu_工作簿1.xlsx
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
